--- a/data/134/DEUSTATIS/National accounts - Exports and imports years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - Exports and imports years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
   <si>
     <t>National accounts - Exports, imports (nominal/price-
 adjusted): Germany, years</t>
@@ -120,6 +120,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>At current prices (bn EUR)</t>
   </si>
   <si>
@@ -174,7 +177,7 @@
     <t xml:space="preserve">  index".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:38:53</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:38:52</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -798,6 +801,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -926,6 +933,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -935,6 +946,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1091,6 +1106,7 @@
     <col min="30" max="30" width="9.98828125" customWidth="true"/>
     <col min="31" max="31" width="9.98828125" customWidth="true"/>
     <col min="32" max="32" width="9.03125" customWidth="true"/>
+    <col min="33" max="33" width="9.98828125" customWidth="true"/>
     <col min="18" max="18" width="9.03125" customWidth="true"/>
     <col min="1" max="1" width="31.18359375" style="7" customWidth="true"/>
   </cols>
@@ -1111,114 +1127,117 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="85">
+      <c r="A4" t="s" s="87">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="86">
+      <c r="B4" t="s" s="88">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="87">
+      <c r="C4" t="s" s="89">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="88">
+      <c r="D4" t="s" s="90">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="89">
+      <c r="E4" t="s" s="91">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="90">
+      <c r="F4" t="s" s="92">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="91">
+      <c r="G4" t="s" s="93">
         <v>9</v>
       </c>
-      <c r="H4" t="s" s="92">
+      <c r="H4" t="s" s="94">
         <v>10</v>
       </c>
-      <c r="I4" t="s" s="93">
+      <c r="I4" t="s" s="95">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="94">
+      <c r="J4" t="s" s="96">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="95">
+      <c r="K4" t="s" s="97">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="96">
+      <c r="L4" t="s" s="98">
         <v>14</v>
       </c>
-      <c r="M4" t="s" s="97">
+      <c r="M4" t="s" s="99">
         <v>15</v>
       </c>
-      <c r="N4" t="s" s="98">
+      <c r="N4" t="s" s="100">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="99">
+      <c r="O4" t="s" s="101">
         <v>17</v>
       </c>
-      <c r="P4" t="s" s="100">
+      <c r="P4" t="s" s="102">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="101">
+      <c r="Q4" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="R4" t="s" s="102">
+      <c r="R4" t="s" s="104">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="103">
+      <c r="S4" t="s" s="105">
         <v>21</v>
       </c>
-      <c r="T4" t="s" s="104">
+      <c r="T4" t="s" s="106">
         <v>22</v>
       </c>
-      <c r="U4" t="s" s="105">
+      <c r="U4" t="s" s="107">
         <v>23</v>
       </c>
-      <c r="V4" t="s" s="106">
+      <c r="V4" t="s" s="108">
         <v>24</v>
       </c>
-      <c r="W4" t="s" s="107">
+      <c r="W4" t="s" s="109">
         <v>25</v>
       </c>
-      <c r="X4" t="s" s="108">
+      <c r="X4" t="s" s="110">
         <v>26</v>
       </c>
-      <c r="Y4" t="s" s="109">
+      <c r="Y4" t="s" s="111">
         <v>27</v>
       </c>
-      <c r="Z4" t="s" s="110">
+      <c r="Z4" t="s" s="112">
         <v>28</v>
       </c>
-      <c r="AA4" t="s" s="111">
+      <c r="AA4" t="s" s="113">
         <v>29</v>
       </c>
-      <c r="AB4" t="s" s="112">
+      <c r="AB4" t="s" s="114">
         <v>30</v>
       </c>
-      <c r="AC4" t="s" s="113">
+      <c r="AC4" t="s" s="115">
         <v>31</v>
       </c>
-      <c r="AD4" t="s" s="114">
+      <c r="AD4" t="s" s="116">
         <v>32</v>
       </c>
-      <c r="AE4" t="s" s="115">
+      <c r="AE4" t="s" s="117">
         <v>33</v>
       </c>
-      <c r="AF4" t="s" s="116">
+      <c r="AF4" t="s" s="118">
         <v>34</v>
+      </c>
+      <c r="AG4" t="s" s="119">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="true">
       <c r="A5" t="s" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n" s="10">
         <v>375.278</v>
@@ -1309,14 +1328,17 @@
       </c>
       <c r="AF6" t="n" s="10">
         <v>1462.09</v>
+      </c>
+      <c r="AG6" t="n" s="10">
+        <v>1694.583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>324.35</v>
@@ -1407,14 +1429,17 @@
       </c>
       <c r="AF7" t="n" s="10">
         <v>1190.094</v>
+      </c>
+      <c r="AG7" t="n" s="10">
+        <v>1369.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>50.928</v>
@@ -1505,14 +1530,17 @@
       </c>
       <c r="AF8" t="n" s="10">
         <v>271.996</v>
+      </c>
+      <c r="AG8" t="n" s="10">
+        <v>324.623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>383.01</v>
@@ -1603,14 +1631,17 @@
       </c>
       <c r="AF9" t="n" s="10">
         <v>1269.289</v>
+      </c>
+      <c r="AG9" t="n" s="10">
+        <v>1497.044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>306.309</v>
@@ -1701,14 +1732,17 @@
       </c>
       <c r="AF10" t="n" s="10">
         <v>1000.858</v>
+      </c>
+      <c r="AG10" t="n" s="10">
+        <v>1186.469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>76.701</v>
@@ -1799,14 +1833,17 @@
       </c>
       <c r="AF11" t="n" s="10">
         <v>268.431</v>
+      </c>
+      <c r="AG11" t="n" s="10">
+        <v>310.575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>-7.732</v>
@@ -1897,19 +1934,22 @@
       </c>
       <c r="AF12" t="n" s="10">
         <v>192.801</v>
+      </c>
+      <c r="AG12" t="n" s="10">
+        <v>197.539</v>
       </c>
     </row>
     <row r="13" ht="33.75" customHeight="true">
       <c r="A13" t="s" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>29.78</v>
@@ -2000,14 +2040,17 @@
       </c>
       <c r="AF14" t="n" s="10">
         <v>100.81</v>
+      </c>
+      <c r="AG14" t="n" s="10">
+        <v>110.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B15" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>30.64</v>
@@ -2098,14 +2141,17 @@
       </c>
       <c r="AF15" t="n" s="10">
         <v>101.03</v>
+      </c>
+      <c r="AG15" t="n" s="10">
+        <v>111.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>25.84</v>
@@ -2196,14 +2242,17 @@
       </c>
       <c r="AF16" t="n" s="10">
         <v>99.9</v>
+      </c>
+      <c r="AG16" t="n" s="10">
+        <v>109.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>33.84</v>
@@ -2294,14 +2343,17 @@
       </c>
       <c r="AF17" t="n" s="10">
         <v>107.41</v>
+      </c>
+      <c r="AG17" t="n" s="10">
+        <v>117.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>32.83</v>
@@ -2392,14 +2444,17 @@
       </c>
       <c r="AF18" t="n" s="10">
         <v>111.85</v>
+      </c>
+      <c r="AG18" t="n" s="10">
+        <v>121.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>37.08</v>
@@ -2490,117 +2545,123 @@
       </c>
       <c r="AF19" t="n" s="10">
         <v>92.94</v>
+      </c>
+      <c r="AG19" t="n" s="10">
+        <v>103.74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AG20" t="s" s="10">
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="33.75" customHeight="true">
       <c r="A21" t="s" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>422.848</v>
@@ -2691,14 +2752,17 @@
       </c>
       <c r="AF22" t="n" s="10">
         <v>1431.407</v>
+      </c>
+      <c r="AG22" t="n" s="10">
+        <v>1573.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B23" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>357.444</v>
@@ -2789,14 +2853,17 @@
       </c>
       <c r="AF23" t="n" s="10">
         <v>1178.609</v>
+      </c>
+      <c r="AG23" t="n" s="10">
+        <v>1297.718</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>65.456</v>
@@ -2887,14 +2954,17 @@
       </c>
       <c r="AF24" t="n" s="10">
         <v>253.06</v>
+      </c>
+      <c r="AG24" t="n" s="10">
+        <v>276.339</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="n" s="10">
         <v>402.716</v>
@@ -2985,14 +3055,17 @@
       </c>
       <c r="AF25" t="n" s="10">
         <v>1278.243</v>
+      </c>
+      <c r="AG25" t="n" s="10">
+        <v>1396.535</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n" s="10">
         <v>301.447</v>
@@ -3083,14 +3156,17 @@
       </c>
       <c r="AF26" t="n" s="10">
         <v>1027.015</v>
+      </c>
+      <c r="AG26" t="n" s="10">
+        <v>1115.53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="n" s="10">
         <v>100.803</v>
@@ -3181,120 +3257,126 @@
       </c>
       <c r="AF27" t="n" s="10">
         <v>252.66</v>
+      </c>
+      <c r="AG27" t="n" s="10">
+        <v>282.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AG28" t="s" s="10">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="33.75" customHeight="true">
       <c r="A29" t="s" s="14">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" t="n" s="10">
         <v>373.956</v>
@@ -3382,17 +3464,20 @@
       </c>
       <c r="AF30" t="n" s="10">
         <v>1468.411</v>
+      </c>
+      <c r="AG30" t="n" s="10">
+        <v>1607.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B31" t="s" s="13">
-        <v>37</v>
-      </c>
       <c r="C31" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" t="n" s="10">
         <v>323.876</v>
@@ -3480,17 +3565,20 @@
       </c>
       <c r="AF31" t="n" s="10">
         <v>1198.379</v>
+      </c>
+      <c r="AG31" t="n" s="10">
+        <v>1310.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" t="n" s="10">
         <v>50.08</v>
@@ -3578,17 +3666,20 @@
       </c>
       <c r="AF32" t="n" s="10">
         <v>270.032</v>
+      </c>
+      <c r="AG32" t="n" s="10">
+        <v>297.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" t="n" s="10">
         <v>394.651</v>
@@ -3676,17 +3767,20 @@
       </c>
       <c r="AF33" t="n" s="10">
         <v>1301.048</v>
+      </c>
+      <c r="AG33" t="n" s="10">
+        <v>1386.789</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" t="n" s="10">
         <v>312.475</v>
@@ -3774,17 +3868,20 @@
       </c>
       <c r="AF34" t="n" s="10">
         <v>1036.9</v>
+      </c>
+      <c r="AG34" t="n" s="10">
+        <v>1087.158</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" t="n" s="10">
         <v>82.176</v>
@@ -3872,17 +3969,20 @@
       </c>
       <c r="AF35" t="n" s="10">
         <v>264.148</v>
+      </c>
+      <c r="AG35" t="n" s="10">
+        <v>299.631</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" t="n" s="10">
         <v>-20.695</v>
@@ -3970,51 +4070,54 @@
       </c>
       <c r="AF36" t="n" s="10">
         <v>167.363</v>
+      </c>
+      <c r="AG36" t="n" s="10">
+        <v>220.551</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="A13:AF13"/>
-    <mergeCell ref="A21:AF21"/>
-    <mergeCell ref="A29:AF29"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A5:AG5"/>
+    <mergeCell ref="A13:AG13"/>
+    <mergeCell ref="A21:AG21"/>
+    <mergeCell ref="A29:AG29"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:38:55&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:38:56&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>